--- a/data/trans_camb/IMC_inf_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IMC_inf_R2-Habitat-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con al menos sobrepeso</t>
+          <t>Población con sobrepeso u obesidad declarado</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-9,24</t>
+          <t>-6,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,18</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,37</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>12,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,44</t>
+          <t>14,14</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>10,12</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>9,31</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-5,44</t>
+          <t>3,46</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-33,68; 16,3</t>
+          <t>-36,4; 22,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-34,87; 15,83</t>
+          <t>-29,1; 31,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-38,15; 20,58</t>
+          <t>-33,57; 29,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 30,84</t>
+          <t>-15,15; 39,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 43,25</t>
+          <t>-12,71; 43,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,6; 23,48</t>
+          <t>-15,04; 38,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 17,85</t>
+          <t>-16,84; 25,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 21,85</t>
+          <t>-13,53; 30,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-23,45; 14,02</t>
+          <t>-18,29; 24,15</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-18,85%</t>
+          <t>-12,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-16,69%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-19,13%</t>
+          <t>-6,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>44,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>62,86%</t>
+          <t>49,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>35,34%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-3,64%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>23,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-13,95%</t>
+          <t>8,6%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-57,37; 45,93</t>
+          <t>-56,05; 62,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-57,15; 49,96</t>
+          <t>-44,57; 85,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-65,78; 68,09</t>
+          <t>-57,18; 78,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,65; 201,76</t>
+          <t>-40,03; 217,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,63; 292,69</t>
+          <t>-34,4; 262,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,45; 161,37</t>
+          <t>-44,92; 214,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,3; 59,75</t>
+          <t>-34,15; 85,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,29; 72,47</t>
+          <t>-28,88; 105,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-49,86; 44,67</t>
+          <t>-38,96; 78,2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,68</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,16</t>
+          <t>-6,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>8,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>7,68</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,22</t>
+          <t>-5,54</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-7,71</t>
+          <t>-6,24</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 5,51</t>
+          <t>-6,52; 15,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 10,05</t>
+          <t>-8,84; 14,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 2,43</t>
+          <t>-19,87; 4,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 15,48</t>
+          <t>-3,55; 19,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 10,93</t>
+          <t>-3,78; 18,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,6; 1,88</t>
+          <t>-17,36; 5,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 7,63</t>
+          <t>-2,31; 13,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 6,86</t>
+          <t>-3,67; 12,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,78; -0,42</t>
+          <t>-14,97; 1,65</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,48%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,21%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-18,29%</t>
+          <t>-14,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-22,29%</t>
+          <t>-16,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-19,86%</t>
+          <t>-15,35%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,25; 14,46</t>
+          <t>-12,46; 39,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 25,18</t>
+          <t>-16,89; 34,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-40,31; 6,13</t>
+          <t>-39,3; 10,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 56,11</t>
+          <t>-8,84; 69,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,21; 40,34</t>
+          <t>-11,19; 63,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,89; 7,78</t>
+          <t>-43,39; 16,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,34; 22,51</t>
+          <t>-5,28; 37,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 18,87</t>
+          <t>-8,57; 33,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-35,13; -1,23</t>
+          <t>-33,24; 4,32</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,31</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-10,23</t>
+          <t>-7,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-8,87</t>
+          <t>-9,17</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-9,4</t>
+          <t>-9,21</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-7,55</t>
+          <t>-6,02</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-9,42</t>
+          <t>-8,05</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 7,87</t>
+          <t>-0,77; 15,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 0,91</t>
+          <t>-10,47; 5,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,66; -1,22</t>
+          <t>-17,28; -0,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 8,29</t>
+          <t>-5,06; 11,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,32; -0,43</t>
+          <t>-17,06; -1,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,01; -0,91</t>
+          <t>-17,13; -1,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 5,08</t>
+          <t>-0,98; 10,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,84; -2,12</t>
+          <t>-11,59; 0,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-15,31; -4,02</t>
+          <t>-14,25; -1,95</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,06%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-13,71%</t>
+          <t>-7,04%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-22,24%</t>
+          <t>-16,36%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,38%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-24,73%</t>
+          <t>-24,32%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-26,21%</t>
+          <t>-24,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-0,63%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-18,35%</t>
+          <t>-13,9%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-22,89%</t>
+          <t>-18,61%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 19,01</t>
+          <t>-1,88; 35,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,0; 2,3</t>
+          <t>-20,35; 12,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-36,24; -3,58</t>
+          <t>-33,18; -0,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,06; 27,4</t>
+          <t>-12,03; 34,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,29; -2,13</t>
+          <t>-40,91; -4,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,07; -2,75</t>
+          <t>-41,73; -3,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 13,19</t>
+          <t>-1,94; 27,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,52; -5,55</t>
+          <t>-25,28; 0,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-35,26; -10,67</t>
+          <t>-30,91; -4,78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>-6,29</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-5,93</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-4,56</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>7,63</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,13</t>
+          <t>-4,66</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 7,12</t>
+          <t>-8,33; 11,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 3,28</t>
+          <t>-16,25; 2,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 4,99</t>
+          <t>-16,44; 5,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 14,1</t>
+          <t>-2,03; 17,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 8,24</t>
+          <t>-9,13; 9,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 5,04</t>
+          <t>-13,68; 5,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 7,99</t>
+          <t>-2,1; 12,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 2,51</t>
+          <t>-10,23; 3,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 2,97</t>
+          <t>-12,05; 2,79</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,94%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-14,93%</t>
+          <t>-13,98%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-11,49%</t>
+          <t>-13,19%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>22,87%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,35%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-11,19%</t>
+          <t>-9,76%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-8,93%</t>
+          <t>-7,42%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-11,69%</t>
+          <t>-11,85%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,55; 20,29</t>
+          <t>-16,13; 28,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-32,78; 9,56</t>
+          <t>-32,01; 7,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-33,97; 13,42</t>
+          <t>-33,77; 14,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 53,56</t>
+          <t>-5,44; 63,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,53; 31,87</t>
+          <t>-24,02; 33,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-35,88; 18,77</t>
+          <t>-36,37; 20,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 25,6</t>
+          <t>-5,1; 34,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 7,8</t>
+          <t>-24,36; 10,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,08; 9,97</t>
+          <t>-28,77; 7,74</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>7,07</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-5,36</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-9,58</t>
+          <t>-7,7</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-7,44</t>
+          <t>-5,94</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 11,65</t>
+          <t>-1,57; 17,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 10,4</t>
+          <t>-4,47; 13,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 3,28</t>
+          <t>-12,79; 5,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 12,1</t>
+          <t>-0,01; 19,48</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 8,89</t>
+          <t>-6,18; 11,23</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,27; -2,32</t>
+          <t>-16,67; 1,39</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 8,78</t>
+          <t>1,95; 14,38</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 7,48</t>
+          <t>-2,52; 9,83</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-13,05; -1,26</t>
+          <t>-12,3; 0,03</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-14,5%</t>
+          <t>-10,26%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>24,85%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-27,5%</t>
+          <t>-21,77%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-20,72%</t>
+          <t>-15,54%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 36,33</t>
+          <t>-3,76; 48,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-13,66; 31,7</t>
+          <t>-9,91; 37,69</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-34,26; 10,1</t>
+          <t>-28,99; 15,28</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 38,94</t>
+          <t>-0,01; 62,52</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 28,8</t>
+          <t>-15,91; 37,55</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-44,57; -7,35</t>
+          <t>-42,27; 4,44</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 27,02</t>
+          <t>5,02; 40,96</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 22,73</t>
+          <t>-6,44; 27,8</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-34,47; -3,69</t>
+          <t>-30,12; 0,32</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-7,16</t>
+          <t>-6,12</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-7,44</t>
+          <t>-6,28</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-7,2</t>
+          <t>-6,06</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 3,46</t>
+          <t>0,34; 9,57</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 1,57</t>
+          <t>-5,42; 3,76</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,79; -2,53</t>
+          <t>-11,32; -1,38</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 7,36</t>
+          <t>2,24; 11,58</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 2,1</t>
+          <t>-5,17; 4,18</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-11,43; -2,87</t>
+          <t>-10,95; -2,03</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 4,23</t>
+          <t>2,59; 9,04</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 0,79</t>
+          <t>-3,44; 3,03</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-10,25; -3,95</t>
+          <t>-9,75; -2,74</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-1,76%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-6,66%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-17,08%</t>
+          <t>-13,47%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>19,61%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-5,49%</t>
+          <t>-1,04%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-22,13%</t>
+          <t>-17,83%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-6,17%</t>
+          <t>-1,17%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-18,99%</t>
+          <t>-14,98%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 8,48</t>
+          <t>0,73; 22,19</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-15,7; 4,31</t>
+          <t>-11,16; 8,74</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-26,37; -6,01</t>
+          <t>-23,95; -3,28</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 23,57</t>
+          <t>6,15; 34,92</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 6,78</t>
+          <t>-13,78; 12,59</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-32,15; -8,82</t>
+          <t>-29,77; -6,12</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 11,56</t>
+          <t>6,24; 23,11</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 2,19</t>
+          <t>-8,15; 7,56</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-26,01; -10,7</t>
+          <t>-23,24; -6,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IMC_inf_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IMC_inf_R2-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,67</t>
+          <t>9,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>8,87</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,65</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,14</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,12</t>
+          <t>-9,18</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,31</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>-5,98</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-36,4; 22,31</t>
+          <t>-2,17; 19,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-29,1; 31,63</t>
+          <t>-2,65; 19,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-33,57; 29,22</t>
+          <t>-13,11; 7,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 39,75</t>
+          <t>-8,75; 12,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 43,1</t>
+          <t>-7,25; 13,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 38,31</t>
+          <t>-22,14; 4,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 25,87</t>
+          <t>-1,93; 13,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 30,19</t>
+          <t>-1,76; 13,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 24,15</t>
+          <t>-14,26; 2,78</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,65%</t>
+          <t>27,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>26,68%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,23%</t>
+          <t>-8,37%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>44,17%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>49,39%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>35,34%</t>
+          <t>-19,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,11%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>-14,74%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-56,05; 62,88</t>
+          <t>-5,51; 70,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-44,57; 85,13</t>
+          <t>-6,92; 69,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-57,18; 78,66</t>
+          <t>-34,43; 26,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,03; 217,45</t>
+          <t>-16,6; 30,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,4; 262,87</t>
+          <t>-14,16; 33,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,92; 214,37</t>
+          <t>-44,04; 8,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,15; 85,89</t>
+          <t>-4,13; 36,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,88; 105,66</t>
+          <t>-4,02; 36,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-38,96; 78,2</t>
+          <t>-32,77; 7,34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>-9,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,68</t>
+          <t>-9,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,18</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,68</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,54</t>
+          <t>-7,49</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,83</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>-6,02</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-6,24</t>
+          <t>-7,9</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 15,72</t>
+          <t>-5,14; 11,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 14,43</t>
+          <t>-16,79; -1,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,87; 4,75</t>
+          <t>-17,99; -0,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 19,95</t>
+          <t>-2,11; 15,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 18,4</t>
+          <t>-11,53; 5,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 5,04</t>
+          <t>-15,99; 1,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 13,79</t>
+          <t>-0,93; 11,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 12,29</t>
+          <t>-11,81; -0,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 1,65</t>
+          <t>-13,69; -0,83</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>-24,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-14,5%</t>
+          <t>-25,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>-7,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,15%</t>
+          <t>-15,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>-13,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-15,35%</t>
+          <t>-18,24%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 39,41</t>
+          <t>-12,21; 35,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 34,97</t>
+          <t>-41,31; -4,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-39,3; 10,96</t>
+          <t>-43,35; -3,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 69,95</t>
+          <t>-3,27; 35,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 63,44</t>
+          <t>-22,57; 12,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,39; 16,87</t>
+          <t>-30,61; 3,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 37,63</t>
+          <t>-2,05; 28,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 33,64</t>
+          <t>-25,72; -0,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-33,24; 4,32</t>
+          <t>-30,34; -2,05</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>7,63</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,94</t>
+          <t>-6,03</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-9,17</t>
+          <t>-6,29</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-9,21</t>
+          <t>-6,09</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-6,02</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-8,05</t>
+          <t>-6,28</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 15,94</t>
+          <t>-1,42; 18,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 5,26</t>
+          <t>-8,63; 10,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,28; -0,17</t>
+          <t>-20,34; 5,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 11,62</t>
+          <t>-7,93; 12,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,06; -1,5</t>
+          <t>-15,68; 4,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,13; -1,3</t>
+          <t>-17,13; 5,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 10,96</t>
+          <t>-2,18; 11,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 0,29</t>
+          <t>-9,43; 4,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,25; -1,95</t>
+          <t>-16,23; 1,69</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>22,87%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,04%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-16,36%</t>
+          <t>-18,07%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-24,32%</t>
+          <t>-13,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-24,41%</t>
+          <t>-13,53%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-13,9%</t>
+          <t>-7,42%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-18,61%</t>
+          <t>-15,97%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 35,67</t>
+          <t>-3,93; 66,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,35; 12,0</t>
+          <t>-22,87; 34,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,18; -0,38</t>
+          <t>-55,08; 18,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 34,11</t>
+          <t>-16,46; 31,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,91; -4,14</t>
+          <t>-32,15; 11,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,73; -3,56</t>
+          <t>-34,74; 13,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 27,15</t>
+          <t>-5,11; 31,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,28; 0,73</t>
+          <t>-22,13; 12,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-30,91; -4,78</t>
+          <t>-38,6; 3,97</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-6,29</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,93</t>
+          <t>-7,09</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,63</t>
+          <t>7,07</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,25</t>
+          <t>-4,08</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,66</t>
+          <t>-5,43</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 11,57</t>
+          <t>-0,51; 17,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 2,99</t>
+          <t>-7,41; 11,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,44; 5,47</t>
+          <t>-17,13; 1,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 17,15</t>
+          <t>-1,82; 16,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 9,6</t>
+          <t>-4,42; 13,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 5,58</t>
+          <t>-13,05; 4,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 12,17</t>
+          <t>1,25; 14,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 3,66</t>
+          <t>-2,65; 10,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 2,79</t>
+          <t>-11,71; 1,56</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>24,85%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-13,98%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-13,19%</t>
+          <t>-20,03%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-9,76%</t>
+          <t>-9,92%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-7,42%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-11,85%</t>
+          <t>-14,22%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,13; 28,84</t>
+          <t>-1,66; 56,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-32,01; 7,54</t>
+          <t>-19,47; 36,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-33,77; 14,15</t>
+          <t>-42,86; 6,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 63,44</t>
+          <t>-4,42; 45,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,02; 33,35</t>
+          <t>-9,65; 36,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,37; 20,19</t>
+          <t>-29,78; 12,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 34,0</t>
+          <t>2,98; 41,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-24,36; 10,32</t>
+          <t>-6,43; 28,25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,77; 7,74</t>
+          <t>-28,59; 4,29</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-4,22</t>
+          <t>-6,91</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8,8</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-7,7</t>
+          <t>-6,42</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-5,94</t>
+          <t>-6,45</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 17,67</t>
+          <t>2,48; 11,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 13,26</t>
+          <t>-4,92; 4,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 5,8</t>
+          <t>-12,89; -1,84</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 19,48</t>
+          <t>0,19; 10,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 11,23</t>
+          <t>-5,13; 4,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 1,39</t>
+          <t>-11,87; -1,14</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,95; 14,38</t>
+          <t>2,21; 9,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 9,83</t>
+          <t>-3,78; 2,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 0,03</t>
+          <t>-10,41; -2,69</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>19,61%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>-1,04%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-10,26%</t>
+          <t>-19,61%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>24,85%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-21,77%</t>
+          <t>-14,14%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>-1,17%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-15,54%</t>
+          <t>-15,94%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 48,14</t>
+          <t>6,62; 35,38</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 37,69</t>
+          <t>-13,21; 13,13</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-28,99; 15,28</t>
+          <t>-34,68; -5,62</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 62,52</t>
+          <t>0,06; 22,95</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 37,55</t>
+          <t>-10,85; 10,07</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-42,27; 4,44</t>
+          <t>-25,02; -2,62</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>5,02; 40,96</t>
+          <t>5,25; 23,49</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 27,8</t>
+          <t>-9,02; 6,44</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-30,12; 0,32</t>
+          <t>-25,15; -7,02</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>5,06</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,69</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-6,12</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>6,91</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-6,28</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>5,98</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-0,47</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-6,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,34; 9,57</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-5,42; 3,76</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-11,32; -1,38</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>2,24; 11,58</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-5,17; 4,18</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-10,95; -2,03</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 9,04</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-3,44; 3,03</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-9,75; -2,74</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>11,15%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-1,52%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-13,47%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>19,61%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-1,04%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-17,83%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>14,79%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-1,17%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-14,98%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 22,19</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-11,16; 8,74</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-23,95; -3,28</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>6,15; 34,92</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-13,78; 12,59</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-29,77; -6,12</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>6,24; 23,11</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-8,15; 7,56</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-23,24; -6,81</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
